--- a/state-visits.xlsx
+++ b/state-visits.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff Levy\Documents\GitHub\data_skills_1_hw5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e96206223769ca8b/Documents/GitHub/Data-and-Programming-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B652DB9B-16BD-4206-83D5-8795DDE995A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="8_{B652DB9B-16BD-4206-83D5-8795DDE995A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75C61855-B658-4B0B-AE41-0D46CE4B7BD1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-16320" yWindow="-7080" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="state-visits" sheetId="1" r:id="rId1"/>
@@ -187,7 +187,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1021,10 +1021,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1040,260 +1042,416 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
